--- a/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAAE27C-77A0-464D-9D28-52E237DAFABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1593F7-994E-4999-AC59-2AF34ADE4634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{039C7BCA-5B6D-4452-92C8-B3A995DBB42D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0233C2E6-9B2D-4E59-B294-5BFB38739675}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="569">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -569,1201 +569,1183 @@
     <t>2,48%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>91,6%</t>
   </si>
   <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>93,3%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>94,88%</t>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD8C13E-4B8E-4F3B-B733-7FDE1D907AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC06945-BF84-483D-91CF-0805F84EAB22}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3706,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBD258D-5D7F-4E0E-9F89-F9B55D09F2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307A2AF-64CF-4445-971B-127F1351D75A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,10 +3982,10 @@
         <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4000,13 @@
         <v>491963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4033,13 +4015,13 @@
         <v>479947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4048,13 +4030,13 @@
         <v>971910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4104,13 @@
         <v>12955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4137,13 +4119,13 @@
         <v>30737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4152,13 +4134,13 @@
         <v>43692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4155,13 @@
         <v>310161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -4340,7 +4322,7 @@
         <v>562</v>
       </c>
       <c r="I14" s="7">
-        <v>609494</v>
+        <v>609495</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>219</v>
@@ -4391,7 +4373,7 @@
         <v>621</v>
       </c>
       <c r="I15" s="7">
-        <v>670039</v>
+        <v>670040</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4775,10 +4757,10 @@
         <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,10 +4778,10 @@
         <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -4808,13 +4790,13 @@
         <v>642596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
         <v>1181</v>
@@ -4823,13 +4805,13 @@
         <v>1276668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4879,13 @@
         <v>21130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4912,13 +4894,13 @@
         <v>54346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4927,13 +4909,13 @@
         <v>75476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4930,7 @@
         <v>755842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>284</v>
@@ -5085,10 +5067,10 @@
         <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5085,13 @@
         <v>3310314</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5118,13 +5100,13 @@
         <v>3250210</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>6112</v>
@@ -5133,13 +5115,13 @@
         <v>6560524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B79FE8-1EC6-4FD9-892F-5D3E994F4FC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCB3959-ED30-4249-B4EB-27BC4A7F5B29}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5218,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5325,13 @@
         <v>8194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5358,13 +5340,13 @@
         <v>24668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5376,10 +5358,10 @@
         <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,7 +5376,7 @@
         <v>285567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>315</v>
@@ -5415,7 +5397,7 @@
         <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>511</v>
@@ -5427,10 +5409,10 @@
         <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5480,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5513,13 +5495,13 @@
         <v>33466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5528,13 +5510,13 @@
         <v>40924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5531,13 @@
         <v>495117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5564,13 +5546,13 @@
         <v>489618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>922</v>
@@ -5579,13 +5561,13 @@
         <v>984735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5635,13 @@
         <v>2248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5668,13 +5650,13 @@
         <v>14074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5683,13 +5665,13 @@
         <v>16322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,10 +5686,10 @@
         <v>316317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>115</v>
@@ -5811,10 +5793,10 @@
         <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5823,10 +5805,10 @@
         <v>27370</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>357</v>
@@ -5841,10 +5823,10 @@
         <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5841,13 @@
         <v>363105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5874,13 +5856,13 @@
         <v>359913</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>679</v>
@@ -5889,13 +5871,13 @@
         <v>723018</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5945,13 @@
         <v>11715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5978,10 +5960,10 @@
         <v>19960</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>370</v>
@@ -5993,10 +5975,10 @@
         <v>31675</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>372</v>
@@ -6020,7 +6002,7 @@
         <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -6029,13 +6011,13 @@
         <v>198627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6044,13 +6026,13 @@
         <v>398133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6100,13 @@
         <v>2767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6133,13 +6115,13 @@
         <v>23199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6148,13 +6130,13 @@
         <v>25966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6151,13 @@
         <v>260356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -6184,13 +6166,13 @@
         <v>249916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -6199,13 +6181,13 @@
         <v>510272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6255,13 @@
         <v>9534</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -6288,13 +6270,13 @@
         <v>36867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -6303,13 +6285,13 @@
         <v>46400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6306,13 @@
         <v>647024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -6339,13 +6321,13 @@
         <v>654427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -6354,13 +6336,13 @@
         <v>1301452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6410,13 @@
         <v>25432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6443,13 +6425,13 @@
         <v>72088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6458,13 +6440,13 @@
         <v>97520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6461,13 @@
         <v>753151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6494,13 +6476,13 @@
         <v>754079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6509,13 +6491,13 @@
         <v>1507230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6565,13 @@
         <v>74207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -6598,13 +6580,13 @@
         <v>251691</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>300</v>
@@ -6613,13 +6595,13 @@
         <v>325898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6616,13 @@
         <v>3320143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>3111</v>
@@ -6649,13 +6631,13 @@
         <v>3292851</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>6269</v>
@@ -6664,13 +6646,13 @@
         <v>6612994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F77C0E-E338-458D-9BA2-EBBE61E42799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE6D9D9-AA06-4268-977E-8E931CE0BE28}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6749,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6874,13 +6856,13 @@
         <v>4197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -6889,13 +6871,13 @@
         <v>12802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6904,13 +6886,13 @@
         <v>16999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6907,13 @@
         <v>256101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
@@ -6943,10 +6925,10 @@
         <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>455</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6955,13 +6937,13 @@
         <v>514701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7011,13 @@
         <v>20096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -7044,13 +7026,13 @@
         <v>54463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -7059,13 +7041,13 @@
         <v>74559</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7062,13 @@
         <v>498131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H8" s="7">
         <v>638</v>
@@ -7095,13 +7077,13 @@
         <v>498753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M8" s="7">
         <v>1003</v>
@@ -7110,13 +7092,13 @@
         <v>996884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,10 +7169,10 @@
         <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>479</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -7199,13 +7181,13 @@
         <v>36243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -7214,13 +7196,13 @@
         <v>53691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,10 +7220,10 @@
         <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -7250,13 +7232,13 @@
         <v>337041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>815</v>
@@ -7265,13 +7247,13 @@
         <v>641312</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7321,13 @@
         <v>15347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7354,13 +7336,13 @@
         <v>22559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -7369,13 +7351,13 @@
         <v>37906</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7372,13 @@
         <v>306893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>558</v>
@@ -7408,10 +7390,10 @@
         <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>837</v>
@@ -7420,13 +7402,13 @@
         <v>712534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7476,13 @@
         <v>2507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -7509,13 +7491,13 @@
         <v>11826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -7524,13 +7506,13 @@
         <v>14333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>507</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7527,13 @@
         <v>194241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>514</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>464</v>
@@ -7560,13 +7542,13 @@
         <v>220077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>516</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>510</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
@@ -7575,13 +7557,13 @@
         <v>414318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7631,13 @@
         <v>14006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -7664,13 +7646,13 @@
         <v>17393</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7679,13 +7661,13 @@
         <v>31399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7682,13 @@
         <v>263217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H20" s="7">
         <v>426</v>
@@ -7715,13 +7697,13 @@
         <v>258229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -7730,13 +7712,13 @@
         <v>521446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7786,13 @@
         <v>28583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7819,13 +7801,13 @@
         <v>66228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -7834,13 +7816,13 @@
         <v>94811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7837,13 @@
         <v>599171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>543</v>
+        <v>235</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
@@ -7870,13 +7852,13 @@
         <v>737975</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -7888,10 +7870,10 @@
         <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,13 +7941,13 @@
         <v>15487</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>541</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -7974,13 +7956,13 @@
         <v>66948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -7989,13 +7971,13 @@
         <v>82434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>554</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +7992,13 @@
         <v>843941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>547</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H26" s="7">
         <v>969</v>
@@ -8025,13 +8007,13 @@
         <v>798083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>1713</v>
@@ -8040,13 +8022,13 @@
         <v>1642025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8096,13 @@
         <v>117669</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>327</v>
+        <v>554</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="H28" s="7">
         <v>451</v>
@@ -8129,13 +8111,13 @@
         <v>288464</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>557</v>
       </c>
       <c r="M28" s="7">
         <v>580</v>
@@ -8144,13 +8126,13 @@
         <v>406133</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>262</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,16 +8144,16 @@
         <v>3245</v>
       </c>
       <c r="D29" s="7">
-        <v>3265967</v>
+        <v>3265968</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>337</v>
+        <v>563</v>
       </c>
       <c r="H29" s="7">
         <v>4908</v>
@@ -8180,13 +8162,13 @@
         <v>3514398</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>571</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>564</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="M29" s="7">
         <v>8153</v>
@@ -8195,13 +8177,13 @@
         <v>6780365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>268</v>
+        <v>567</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8195,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1593F7-994E-4999-AC59-2AF34ADE4634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AD3856-ABB1-426A-BC26-648CD59C9CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0233C2E6-9B2D-4E59-B294-5BFB38739675}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CEB02A1-4C3B-451D-BAC4-1123B7F2FC4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="565">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1629 +77,1623 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>8,2%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>91,87%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>96,66%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
     <t>3,48%</t>
   </si>
   <si>
@@ -1718,9 +1712,6 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
     <t>6,16%</t>
   </si>
   <si>
@@ -1743,9 +1734,6 @@
   </si>
   <si>
     <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC06945-BF84-483D-91CF-0805F84EAB22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA2BEC4-F516-4181-B854-7FABB61F7E80}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3062,7 +3050,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3071,13 +3059,13 @@
         <v>9005</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3086,13 +3074,13 @@
         <v>11067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3095,13 @@
         <v>268749</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3122,13 +3110,13 @@
         <v>269139</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3137,13 +3125,13 @@
         <v>537888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,7 +3187,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3211,13 +3199,13 @@
         <v>11992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3226,13 +3214,13 @@
         <v>47591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -3241,13 +3229,13 @@
         <v>59583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3250,13 @@
         <v>603035</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>573</v>
@@ -3277,13 +3265,13 @@
         <v>590628</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1158</v>
@@ -3292,13 +3280,13 @@
         <v>1193663</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3342,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3366,13 +3354,13 @@
         <v>29902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3381,13 +3369,13 @@
         <v>55081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -3396,13 +3384,13 @@
         <v>84983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3405,13 @@
         <v>712875</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -3432,13 +3420,13 @@
         <v>728430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1402</v>
@@ -3447,13 +3435,13 @@
         <v>1441305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3509,10 @@
         <v>70100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>75</v>
@@ -3536,13 +3524,13 @@
         <v>218181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>282</v>
@@ -3551,13 +3539,13 @@
         <v>288281</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3560,13 @@
         <v>3205425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3086</v>
@@ -3587,28 +3575,28 @@
         <v>3161017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6228</v>
       </c>
       <c r="N29" s="7">
-        <v>6366441</v>
+        <v>6366442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3638,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3664,7 +3652,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4307A2AF-64CF-4445-971B-127F1351D75A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F14BE5-4B50-406A-A9FE-71C707B4E4EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3705,7 +3693,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3810,39 +3798,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,39 +3843,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,39 +3888,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3937,13 @@
         <v>12523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3964,13 +3952,13 @@
         <v>42784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3979,13 +3967,13 @@
         <v>55307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3988,13 @@
         <v>491963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4015,13 +4003,13 @@
         <v>479947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4030,13 +4018,13 @@
         <v>971910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4092,13 @@
         <v>12955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4119,13 +4107,13 @@
         <v>30737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4134,13 +4122,13 @@
         <v>43692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4143,13 @@
         <v>310161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -4170,13 +4158,13 @@
         <v>310283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>594</v>
@@ -4185,13 +4173,13 @@
         <v>620444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4247,13 @@
         <v>16132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4274,13 +4262,13 @@
         <v>60545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -4289,13 +4277,13 @@
         <v>76677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4298,13 @@
         <v>648054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
@@ -4325,13 +4313,13 @@
         <v>609495</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4340,13 +4328,13 @@
         <v>1257548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4402,13 @@
         <v>6277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4429,13 +4417,13 @@
         <v>33539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4444,13 +4432,13 @@
         <v>39816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4453,13 @@
         <v>206341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4480,13 +4468,13 @@
         <v>186052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -4495,13 +4483,13 @@
         <v>392393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4557,13 @@
         <v>10100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4584,13 +4572,13 @@
         <v>24477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4599,13 +4587,13 @@
         <v>34577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4608,13 @@
         <v>263881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4635,13 +4623,13 @@
         <v>254663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -4650,13 +4638,13 @@
         <v>518544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4700,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4724,13 +4712,13 @@
         <v>28716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -4739,13 +4727,13 @@
         <v>50177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -4754,13 +4742,13 @@
         <v>78893</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4763,13 @@
         <v>634072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -4790,13 +4778,13 @@
         <v>642596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1181</v>
@@ -4805,13 +4793,13 @@
         <v>1276668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,7 +4855,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4879,13 +4867,13 @@
         <v>21130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4894,13 +4882,13 @@
         <v>54346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4909,13 +4897,13 @@
         <v>75476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4918,13 @@
         <v>755842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -4945,13 +4933,13 @@
         <v>767174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1401</v>
@@ -4960,13 +4948,13 @@
         <v>1523016</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5022,13 @@
         <v>107832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>281</v>
@@ -5049,13 +5037,13 @@
         <v>296605</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>376</v>
@@ -5064,13 +5052,13 @@
         <v>404438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5073,13 @@
         <v>3310314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5100,13 +5088,13 @@
         <v>3250210</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>6112</v>
@@ -5115,13 +5103,13 @@
         <v>6560524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>27</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5165,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5201,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCB3959-ED30-4249-B4EB-27BC4A7F5B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D2CED-23BA-4968-8EFA-275FBE6B9983}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5218,7 +5206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5325,13 +5313,13 @@
         <v>8194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5340,13 +5328,13 @@
         <v>24668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5355,13 +5343,13 @@
         <v>32862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5364,13 @@
         <v>285567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -5391,13 +5379,13 @@
         <v>264035</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>511</v>
@@ -5406,13 +5394,13 @@
         <v>549602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5468,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5495,13 +5483,13 @@
         <v>33466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5510,13 +5498,13 @@
         <v>40924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5519,13 @@
         <v>495117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5546,13 +5534,13 @@
         <v>489618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>922</v>
@@ -5561,13 +5549,13 @@
         <v>984735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5623,13 @@
         <v>2248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5650,13 +5638,13 @@
         <v>14074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5665,13 +5653,13 @@
         <v>16322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5674,13 @@
         <v>316317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -5701,13 +5689,13 @@
         <v>322235</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5716,13 +5704,13 @@
         <v>638552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5778,13 @@
         <v>6859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5805,13 +5793,13 @@
         <v>27370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -5820,13 +5808,13 @@
         <v>34229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5829,13 @@
         <v>363105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5856,13 +5844,13 @@
         <v>359913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>679</v>
@@ -5871,13 +5859,13 @@
         <v>723018</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>133</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5933,13 @@
         <v>11715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5960,13 +5948,13 @@
         <v>19960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5975,13 +5963,13 @@
         <v>31675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +5984,13 @@
         <v>199506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -6011,13 +5999,13 @@
         <v>198627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6026,13 +6014,13 @@
         <v>398133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6088,13 @@
         <v>2767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6115,13 +6103,13 @@
         <v>23199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6130,13 +6118,13 @@
         <v>25966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6139,13 @@
         <v>260356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -6166,13 +6154,13 @@
         <v>249916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -6181,13 +6169,13 @@
         <v>510272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6231,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6255,13 +6243,13 @@
         <v>9534</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -6270,13 +6258,13 @@
         <v>36867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -6285,13 +6273,13 @@
         <v>46400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6294,13 @@
         <v>647024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -6321,13 +6309,13 @@
         <v>654427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -6336,13 +6324,13 @@
         <v>1301452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6386,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6410,13 +6398,13 @@
         <v>25432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>416</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6425,13 +6413,13 @@
         <v>72088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6440,13 +6428,13 @@
         <v>97520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6449,13 @@
         <v>753151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>424</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6476,13 +6464,13 @@
         <v>754079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6491,13 +6479,13 @@
         <v>1507230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6553,13 @@
         <v>74207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>432</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -6583,10 +6571,10 @@
         <v>434</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>300</v>
@@ -6595,13 +6583,13 @@
         <v>325898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6604,13 @@
         <v>3320143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3111</v>
@@ -6631,13 +6619,13 @@
         <v>3292851</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>266</v>
       </c>
       <c r="M29" s="7">
         <v>6269</v>
@@ -6646,13 +6634,13 @@
         <v>6612994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>412</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,7 +6696,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6732,7 +6720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE6D9D9-AA06-4268-977E-8E931CE0BE28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F4AC4E-4675-4884-AC26-AB37FDDF8955}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6749,7 +6737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6856,13 +6844,13 @@
         <v>4197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -6871,13 +6859,13 @@
         <v>12802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6886,13 +6874,13 @@
         <v>16999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6895,13 @@
         <v>256101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
@@ -6922,13 +6910,13 @@
         <v>258601</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6937,13 +6925,13 @@
         <v>514701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +6999,13 @@
         <v>20096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -7026,13 +7014,13 @@
         <v>54463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -7041,13 +7029,13 @@
         <v>74559</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,13 +7050,13 @@
         <v>498131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>638</v>
@@ -7077,13 +7065,13 @@
         <v>498753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M8" s="7">
         <v>1003</v>
@@ -7092,13 +7080,13 @@
         <v>996884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7154,13 @@
         <v>17448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -7181,13 +7169,13 @@
         <v>36243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -7196,13 +7184,13 @@
         <v>53691</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7205,13 @@
         <v>304272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -7232,13 +7220,13 @@
         <v>337041</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>815</v>
@@ -7324,7 +7312,7 @@
         <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>494</v>
@@ -7339,10 +7327,10 @@
         <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -7354,7 +7342,7 @@
         <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>497</v>
@@ -7378,7 +7366,7 @@
         <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>558</v>
@@ -7390,10 +7378,10 @@
         <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>837</v>
@@ -7408,7 +7396,7 @@
         <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7464,13 @@
         <v>2507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -7491,13 +7479,13 @@
         <v>11826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>505</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>506</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -7506,13 +7494,13 @@
         <v>14333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7515,13 @@
         <v>194241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>510</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>464</v>
@@ -7542,13 +7530,13 @@
         <v>220077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>513</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
@@ -7557,13 +7545,13 @@
         <v>414318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,10 +7622,10 @@
         <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -7646,13 +7634,13 @@
         <v>17393</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7661,13 +7649,13 @@
         <v>31399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>518</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,10 +7673,10 @@
         <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>520</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>426</v>
@@ -7697,13 +7685,13 @@
         <v>258229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -7712,13 +7700,13 @@
         <v>521446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>524</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,7 +7762,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7786,13 +7774,13 @@
         <v>28583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7801,13 +7789,13 @@
         <v>66228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -7816,13 +7804,13 @@
         <v>94811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7825,13 @@
         <v>599171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>235</v>
+        <v>536</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
@@ -7852,13 +7840,13 @@
         <v>737975</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -7867,13 +7855,13 @@
         <v>1337146</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,7 +7917,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7941,13 +7929,13 @@
         <v>15487</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>539</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -7956,13 +7944,13 @@
         <v>66948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>542</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>544</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -7971,13 +7959,13 @@
         <v>82434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>545</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>210</v>
+        <v>546</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7992,7 +7980,7 @@
         <v>843941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>546</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>547</v>
@@ -8007,13 +7995,13 @@
         <v>798083</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>1713</v>
@@ -8022,13 +8010,13 @@
         <v>1642025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>552</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8084,13 @@
         <v>117669</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="H28" s="7">
         <v>451</v>
@@ -8111,13 +8099,13 @@
         <v>288464</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M28" s="7">
         <v>580</v>
@@ -8126,13 +8114,13 @@
         <v>406133</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>559</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,13 +8135,13 @@
         <v>3265968</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H29" s="7">
         <v>4908</v>
@@ -8162,13 +8150,13 @@
         <v>3514398</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M29" s="7">
         <v>8153</v>
@@ -8177,13 +8165,13 @@
         <v>6780365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>568</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,7 +8227,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22AD3856-ABB1-426A-BC26-648CD59C9CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7166E410-34FC-4CDE-811E-57B0A3E2A2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0CEB02A1-4C3B-451D-BAC4-1123B7F2FC4D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DF5CB5B-30C3-4097-A7F4-092B82519C71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1669 +71,1699 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>95,46%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>93,44%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>93,84%</t>
+    <t>94,88%</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA2BEC4-F516-4181-B854-7FABB61F7E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40D3682-C07E-4937-B9F3-B5CA4C21ACEF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3050,7 +3080,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3059,13 +3089,13 @@
         <v>9005</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3074,13 +3104,13 @@
         <v>11067</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3125,13 @@
         <v>268749</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>261</v>
@@ -3110,13 +3140,13 @@
         <v>269139</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3125,13 +3155,13 @@
         <v>537888</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,7 +3217,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3199,13 +3229,13 @@
         <v>11992</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -3214,13 +3244,13 @@
         <v>47591</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -3229,13 +3259,13 @@
         <v>59583</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3280,13 @@
         <v>603035</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>573</v>
@@ -3265,13 +3295,13 @@
         <v>590628</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1158</v>
@@ -3280,13 +3310,13 @@
         <v>1193663</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,7 +3372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3354,13 +3384,13 @@
         <v>29902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -3369,13 +3399,13 @@
         <v>55081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>78</v>
@@ -3384,13 +3414,13 @@
         <v>84983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3435,13 @@
         <v>712875</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -3420,13 +3450,13 @@
         <v>728430</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1402</v>
@@ -3435,13 +3465,13 @@
         <v>1441305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,10 +3539,10 @@
         <v>70100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>75</v>
@@ -3524,13 +3554,13 @@
         <v>218181</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>282</v>
@@ -3539,13 +3569,13 @@
         <v>288281</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3590,13 @@
         <v>3205425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3086</v>
@@ -3575,28 +3605,28 @@
         <v>3161017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>6228</v>
       </c>
       <c r="N29" s="7">
-        <v>6366442</v>
+        <v>6366441</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3668,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3652,7 +3682,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F14BE5-4B50-406A-A9FE-71C707B4E4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545E740F-DF80-4528-A8A1-4F41AE89773F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3693,7 +3723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3798,39 +3828,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,39 +3873,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,39 +3918,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3967,13 @@
         <v>12523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3952,13 +3982,13 @@
         <v>42784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3967,13 +3997,13 @@
         <v>55307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4018,13 @@
         <v>491963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4003,13 +4033,13 @@
         <v>479947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4018,13 +4048,13 @@
         <v>971910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4122,13 @@
         <v>12955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4107,13 +4137,13 @@
         <v>30737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4122,13 +4152,13 @@
         <v>43692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4173,13 @@
         <v>310161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -4158,13 +4188,13 @@
         <v>310283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>594</v>
@@ -4173,13 +4203,13 @@
         <v>620444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4277,13 @@
         <v>16132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4262,13 +4292,13 @@
         <v>60545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -4277,13 +4307,13 @@
         <v>76677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,28 +4328,28 @@
         <v>648054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>562</v>
       </c>
       <c r="I14" s="7">
-        <v>609495</v>
+        <v>609494</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4328,13 +4358,13 @@
         <v>1257548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,7 +4391,7 @@
         <v>621</v>
       </c>
       <c r="I15" s="7">
-        <v>670040</v>
+        <v>670039</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4402,13 +4432,13 @@
         <v>6277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4417,13 +4447,13 @@
         <v>33539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4432,13 +4462,13 @@
         <v>39816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4483,13 @@
         <v>206341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4468,13 +4498,13 @@
         <v>186052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -4483,13 +4513,13 @@
         <v>392393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4587,13 @@
         <v>10100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4572,13 +4602,13 @@
         <v>24477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4587,13 +4617,13 @@
         <v>34577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4638,13 @@
         <v>263881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4623,13 +4653,13 @@
         <v>254663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -4638,13 +4668,13 @@
         <v>518544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,7 +4730,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4712,13 +4742,13 @@
         <v>28716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -4727,13 +4757,13 @@
         <v>50177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -4742,13 +4772,13 @@
         <v>78893</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4793,13 @@
         <v>634072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -4778,13 +4808,13 @@
         <v>642596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
         <v>1181</v>
@@ -4793,13 +4823,13 @@
         <v>1276668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,7 +4885,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4867,13 +4897,13 @@
         <v>21130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4882,13 +4912,13 @@
         <v>54346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4897,13 +4927,13 @@
         <v>75476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4948,13 @@
         <v>755842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -4933,13 +4963,13 @@
         <v>767174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1401</v>
@@ -4948,13 +4978,13 @@
         <v>1523016</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5052,13 @@
         <v>107832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>281</v>
@@ -5037,13 +5067,13 @@
         <v>296605</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>376</v>
@@ -5052,13 +5082,13 @@
         <v>404438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5103,13 @@
         <v>3310314</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5088,13 +5118,13 @@
         <v>3250210</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>6112</v>
@@ -5103,13 +5133,13 @@
         <v>6560524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,7 +5195,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1D2CED-23BA-4968-8EFA-275FBE6B9983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182F681-A16D-4A7C-B63F-2E3310DD53FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5206,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5313,13 +5343,13 @@
         <v>8194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5328,13 +5358,13 @@
         <v>24668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5343,13 +5373,13 @@
         <v>32862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5394,13 @@
         <v>285567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -5379,13 +5409,13 @@
         <v>264035</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>511</v>
@@ -5394,13 +5424,13 @@
         <v>549602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5498,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5483,13 +5513,13 @@
         <v>33466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5498,13 +5528,13 @@
         <v>40924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,13 +5549,13 @@
         <v>495117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5534,13 +5564,13 @@
         <v>489618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>922</v>
@@ -5549,13 +5579,13 @@
         <v>984735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5653,13 @@
         <v>2248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5638,13 +5668,13 @@
         <v>14074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5653,13 +5683,13 @@
         <v>16322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5704,13 @@
         <v>316317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>319</v>
@@ -5689,13 +5719,13 @@
         <v>322235</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5704,13 +5734,13 @@
         <v>638552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5808,13 @@
         <v>6859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5793,13 +5823,13 @@
         <v>27370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -5808,13 +5838,13 @@
         <v>34229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5859,13 @@
         <v>363105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5844,13 +5874,13 @@
         <v>359913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>679</v>
@@ -5859,13 +5889,13 @@
         <v>723018</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5963,13 @@
         <v>11715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5948,13 +5978,13 @@
         <v>19960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5963,13 +5993,13 @@
         <v>31675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6014,13 @@
         <v>199506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -5999,13 +6029,13 @@
         <v>198627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6014,13 +6044,13 @@
         <v>398133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6118,13 @@
         <v>2767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6103,13 +6133,13 @@
         <v>23199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6118,13 +6148,13 @@
         <v>25966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6169,13 @@
         <v>260356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -6154,13 +6184,13 @@
         <v>249916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -6169,13 +6199,13 @@
         <v>510272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6261,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6243,13 +6273,13 @@
         <v>9534</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -6258,13 +6288,13 @@
         <v>36867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -6273,13 +6303,13 @@
         <v>46400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6324,13 @@
         <v>647024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -6309,13 +6339,13 @@
         <v>654427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -6324,13 +6354,13 @@
         <v>1301452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,7 +6416,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6398,13 +6428,13 @@
         <v>25432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6413,13 +6443,13 @@
         <v>72088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6428,13 +6458,13 @@
         <v>97520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6479,13 @@
         <v>753151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>695</v>
@@ -6464,13 +6494,13 @@
         <v>754079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6479,13 +6509,13 @@
         <v>1507230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6583,13 @@
         <v>74207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>429</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -6568,13 +6598,13 @@
         <v>251691</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>258</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>300</v>
@@ -6583,13 +6613,13 @@
         <v>325898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>273</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6634,13 @@
         <v>3320143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>437</v>
       </c>
       <c r="H29" s="7">
         <v>3111</v>
@@ -6625,7 +6655,7 @@
         <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>266</v>
+        <v>440</v>
       </c>
       <c r="M29" s="7">
         <v>6269</v>
@@ -6634,13 +6664,13 @@
         <v>6612994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>278</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,7 +6726,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6720,7 +6750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F4AC4E-4675-4884-AC26-AB37FDDF8955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4CCF28-5B6B-4908-960A-B3BA710A557F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6737,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6844,13 +6874,13 @@
         <v>4197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -6859,13 +6889,13 @@
         <v>12802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>446</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -6874,13 +6904,13 @@
         <v>16999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6925,13 @@
         <v>256101</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
@@ -6910,13 +6940,13 @@
         <v>258601</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>291</v>
+        <v>455</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
@@ -6925,13 +6955,13 @@
         <v>514701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6999,13 +7029,13 @@
         <v>20096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -7014,13 +7044,13 @@
         <v>54463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
@@ -7029,13 +7059,13 @@
         <v>74559</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7080,13 @@
         <v>498131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>638</v>
@@ -7065,13 +7095,13 @@
         <v>498753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>1003</v>
@@ -7080,13 +7110,13 @@
         <v>996884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,10 +7184,10 @@
         <v>17448</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>477</v>
@@ -7172,10 +7202,10 @@
         <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -7184,13 +7214,13 @@
         <v>53691</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7235,13 @@
         <v>304272</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -7220,13 +7250,13 @@
         <v>337041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>815</v>
@@ -7235,13 +7265,13 @@
         <v>641312</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7339,13 @@
         <v>15347</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -7324,13 +7354,13 @@
         <v>22559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -7339,13 +7369,13 @@
         <v>37906</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>497</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,13 +7390,13 @@
         <v>306893</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>558</v>
@@ -7378,10 +7408,10 @@
         <v>500</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>501</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>502</v>
       </c>
       <c r="M14" s="7">
         <v>837</v>
@@ -7390,13 +7420,13 @@
         <v>712534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7494,13 @@
         <v>2507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -7479,13 +7509,13 @@
         <v>11826</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -7494,13 +7524,13 @@
         <v>14333</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>508</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7515,13 +7545,13 @@
         <v>194241</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>464</v>
@@ -7530,13 +7560,13 @@
         <v>220077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
@@ -7545,13 +7575,13 @@
         <v>414318</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7649,13 @@
         <v>14006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -7634,13 +7664,13 @@
         <v>17393</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7649,13 +7679,13 @@
         <v>31399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,13 +7700,13 @@
         <v>263217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>426</v>
@@ -7685,13 +7715,13 @@
         <v>258229</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
@@ -7700,13 +7730,13 @@
         <v>521446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,7 +7792,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7774,13 +7804,13 @@
         <v>28583</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -7789,13 +7819,13 @@
         <v>66228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
@@ -7804,13 +7834,13 @@
         <v>94811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,13 +7855,13 @@
         <v>599171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
@@ -7840,13 +7870,13 @@
         <v>737975</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
@@ -7855,13 +7885,13 @@
         <v>1337146</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>541</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,7 +7947,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7929,13 +7959,13 @@
         <v>15487</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>544</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -7944,13 +7974,13 @@
         <v>66948</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>552</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -7959,13 +7989,13 @@
         <v>82434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>553</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +8010,13 @@
         <v>843941</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>556</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>547</v>
+        <v>66</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H26" s="7">
         <v>969</v>
@@ -7995,13 +8025,13 @@
         <v>798083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>275</v>
+        <v>558</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>1713</v>
@@ -8010,13 +8040,13 @@
         <v>1642025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>561</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8114,13 @@
         <v>117669</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>552</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H28" s="7">
         <v>451</v>
@@ -8099,13 +8129,13 @@
         <v>288464</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>565</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>555</v>
+        <v>294</v>
       </c>
       <c r="M28" s="7">
         <v>580</v>
@@ -8114,13 +8144,13 @@
         <v>406133</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>568</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>557</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,16 +8162,16 @@
         <v>3245</v>
       </c>
       <c r="D29" s="7">
-        <v>3265968</v>
+        <v>3265967</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>560</v>
+        <v>337</v>
       </c>
       <c r="H29" s="7">
         <v>4908</v>
@@ -8150,13 +8180,13 @@
         <v>3514398</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>571</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>561</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>8153</v>
@@ -8165,13 +8195,13 @@
         <v>6780365</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>564</v>
+        <v>268</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>158</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,7 +8213,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8227,7 +8257,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7166E410-34FC-4CDE-811E-57B0A3E2A2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79ECFD0-6F4A-4D22-AF5D-D43F44B124FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7DF5CB5B-30C3-4097-A7F4-092B82519C71}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C98FD40D-2CE2-457C-A1FD-6287348AB4C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="584">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -563,7 +563,58 @@
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>2,48%</t>
@@ -668,1102 +719,1078 @@
     <t>95,52%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40D3682-C07E-4937-B9F3-B5CA4C21ACEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ACCEE5-9B22-4E86-914E-2A9D87DC9C52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3602,7 +3629,7 @@
         <v>3086</v>
       </c>
       <c r="I29" s="7">
-        <v>3161017</v>
+        <v>3161016</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>166</v>
@@ -3653,7 +3680,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3706,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545E740F-DF80-4528-A8A1-4F41AE89773F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6128C9BE-895E-45F8-90CF-29E5241E000B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3824,43 +3851,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10881</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21101</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N4" s="7">
+        <v>31982</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,43 +3902,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>268</v>
+      </c>
+      <c r="D5" s="7">
+        <v>279322</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="I5" s="7">
+        <v>260964</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>499</v>
+      </c>
+      <c r="N5" s="7">
+        <v>540287</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,43 +3953,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I6" s="7">
+        <v>282065</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N6" s="7">
+        <v>572269</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4012,13 @@
         <v>12523</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -3982,13 +4027,13 @@
         <v>42784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -3997,13 +4042,13 @@
         <v>55307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4063,13 @@
         <v>491963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>439</v>
@@ -4033,13 +4078,13 @@
         <v>479947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4048,10 +4093,10 @@
         <v>971910</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>46</v>
@@ -4122,13 +4167,13 @@
         <v>12955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4137,13 +4182,13 @@
         <v>30737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -4152,13 +4197,13 @@
         <v>43692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4218,13 @@
         <v>310161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>288</v>
@@ -4188,13 +4233,13 @@
         <v>310283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>594</v>
@@ -4203,13 +4248,13 @@
         <v>620444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,49 +4316,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>16132</v>
+        <v>5251</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="7">
         <v>39</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7">
-        <v>59</v>
-      </c>
       <c r="I13" s="7">
-        <v>60545</v>
+        <v>39444</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>76677</v>
+        <v>44695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,49 +4367,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>607</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7">
-        <v>648054</v>
+        <v>368731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
-        <v>562</v>
+        <v>331</v>
       </c>
       <c r="I14" s="7">
-        <v>609494</v>
+        <v>348530</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>1169</v>
+        <v>670</v>
       </c>
       <c r="N14" s="7">
-        <v>1257548</v>
+        <v>717261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,10 +4418,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4388,10 +4433,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>670039</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4403,10 +4448,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1243</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1334225</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4432,13 +4477,13 @@
         <v>6277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4447,13 +4492,13 @@
         <v>33539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -4462,13 +4507,13 @@
         <v>39816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4528,13 @@
         <v>206341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -4498,13 +4543,13 @@
         <v>186052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>370</v>
@@ -4513,13 +4558,13 @@
         <v>392393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4632,13 @@
         <v>10100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -4602,13 +4647,13 @@
         <v>24477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4617,13 +4662,13 @@
         <v>34577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4683,13 @@
         <v>263881</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>244</v>
@@ -4653,13 +4698,13 @@
         <v>254663</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -4668,13 +4713,13 @@
         <v>518544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4790,10 @@
         <v>161</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -4757,13 +4802,13 @@
         <v>50177</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -4772,13 +4817,13 @@
         <v>78893</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,10 +4841,10 @@
         <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -4808,13 +4853,13 @@
         <v>642596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>1181</v>
@@ -4823,13 +4868,13 @@
         <v>1276668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4942,13 @@
         <v>21130</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4912,13 +4957,13 @@
         <v>54346</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4927,13 +4972,13 @@
         <v>75476</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,10 +4993,10 @@
         <v>755842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>85</v>
@@ -4963,13 +5008,13 @@
         <v>767174</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>1401</v>
@@ -4978,13 +5023,13 @@
         <v>1523016</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5097,13 @@
         <v>107832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>281</v>
@@ -5067,28 +5112,28 @@
         <v>296605</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>376</v>
       </c>
       <c r="N28" s="7">
-        <v>404438</v>
+        <v>404437</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,16 +5145,16 @@
         <v>3106</v>
       </c>
       <c r="D29" s="7">
-        <v>3310314</v>
+        <v>3310315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5118,13 +5163,13 @@
         <v>3250210</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>6112</v>
@@ -5133,13 +5178,13 @@
         <v>6560524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,7 +5196,7 @@
         <v>3201</v>
       </c>
       <c r="D30" s="7">
-        <v>3418146</v>
+        <v>3418147</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5181,7 +5226,7 @@
         <v>6488</v>
       </c>
       <c r="N30" s="7">
-        <v>6964962</v>
+        <v>6964961</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5219,7 +5264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0182F681-A16D-4A7C-B63F-2E3310DD53FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C964A12-36E3-46FA-85E9-A96EB0F50A90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5388,13 @@
         <v>8194</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -5358,13 +5403,13 @@
         <v>24668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5376,10 +5421,10 @@
         <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5439,13 @@
         <v>285567</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>253</v>
@@ -5409,10 +5454,10 @@
         <v>264035</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>149</v>
@@ -5427,10 +5472,10 @@
         <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5543,13 @@
         <v>7458</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5513,13 +5558,13 @@
         <v>33466</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -5528,13 +5573,13 @@
         <v>40924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5594,13 @@
         <v>495117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -5564,13 +5609,13 @@
         <v>489618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>922</v>
@@ -5579,13 +5624,13 @@
         <v>984735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5698,13 @@
         <v>2248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5668,13 +5713,13 @@
         <v>14074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5683,13 +5728,13 @@
         <v>16322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,10 +5749,10 @@
         <v>316317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>115</v>
@@ -5719,13 +5764,13 @@
         <v>322235</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>652</v>
@@ -5734,13 +5779,13 @@
         <v>638552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,10 +5853,10 @@
         <v>6859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
@@ -5823,13 +5868,13 @@
         <v>27370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>129</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -5838,13 +5883,13 @@
         <v>34229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5904,13 @@
         <v>363105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5874,10 +5919,10 @@
         <v>359913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>138</v>
@@ -5889,13 +5934,13 @@
         <v>723018</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +6008,13 @@
         <v>11715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -5978,13 +6023,13 @@
         <v>19960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5993,13 +6038,13 @@
         <v>31675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6059,13 @@
         <v>199506</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>203</v>
@@ -6029,10 +6074,10 @@
         <v>198627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>44</v>
@@ -6044,10 +6089,10 @@
         <v>398133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>26</v>
@@ -6118,13 +6163,13 @@
         <v>2767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6133,13 +6178,13 @@
         <v>23199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -6148,13 +6193,13 @@
         <v>25966</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6214,13 @@
         <v>260356</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -6184,13 +6229,13 @@
         <v>249916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -6199,13 +6244,13 @@
         <v>510272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6318,13 @@
         <v>9534</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -6288,13 +6333,13 @@
         <v>36867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -6303,13 +6348,13 @@
         <v>46400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6369,13 @@
         <v>647024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="H23" s="7">
         <v>614</v>
@@ -6339,13 +6384,13 @@
         <v>654427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -6354,13 +6399,13 @@
         <v>1301452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6473,13 @@
         <v>25432</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>60</v>
@@ -6443,13 +6488,13 @@
         <v>72088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>86</v>
@@ -6458,13 +6503,13 @@
         <v>97520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,10 +6524,10 @@
         <v>753151</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>421</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>98</v>
@@ -6494,13 +6539,13 @@
         <v>754079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>1419</v>
@@ -6509,13 +6554,13 @@
         <v>1507230</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6628,13 @@
         <v>74207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
         <v>227</v>
@@ -6598,13 +6643,13 @@
         <v>251691</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>300</v>
@@ -6613,13 +6658,13 @@
         <v>325898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6679,13 @@
         <v>3320143</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>3111</v>
@@ -6649,13 +6694,13 @@
         <v>3292851</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>6269</v>
@@ -6664,13 +6709,13 @@
         <v>6612994</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4CCF28-5B6B-4908-960A-B3BA710A557F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F50A5E-1D6F-48A3-AAD0-5648986FD38A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6871,46 +6916,46 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>4197</v>
+        <v>4679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>12802</v>
+        <v>13356</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>16999</v>
+        <v>18035</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,46 +6967,46 @@
         <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>256101</v>
+        <v>306764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>453</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>510</v>
       </c>
       <c r="I5" s="7">
-        <v>258601</v>
+        <v>276279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>288</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>836</v>
       </c>
       <c r="N5" s="7">
-        <v>514701</v>
+        <v>583042</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,7 +7018,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6988,7 +7033,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7003,7 +7048,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7026,46 +7071,46 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>20096</v>
+        <v>19270</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>54463</v>
+        <v>50388</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>93</v>
       </c>
       <c r="N7" s="7">
-        <v>74559</v>
+        <v>69658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,46 +7122,46 @@
         <v>365</v>
       </c>
       <c r="D8" s="7">
-        <v>498131</v>
+        <v>498123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>638</v>
       </c>
       <c r="I8" s="7">
-        <v>498753</v>
+        <v>463337</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>275</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="M8" s="7">
         <v>1003</v>
       </c>
       <c r="N8" s="7">
-        <v>996884</v>
+        <v>961460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,7 +7173,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7143,7 +7188,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7158,7 +7203,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7181,46 +7226,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>17448</v>
+        <v>16769</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>496</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>36243</v>
+        <v>33726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>53691</v>
+        <v>50495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>480</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,46 +7277,46 @@
         <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>304272</v>
+        <v>298791</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
       </c>
       <c r="I11" s="7">
-        <v>337041</v>
+        <v>315402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>815</v>
       </c>
       <c r="N11" s="7">
-        <v>641312</v>
+        <v>614193</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>486</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,7 +7328,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321720</v>
+        <v>315560</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7298,7 +7343,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7313,7 +7358,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695003</v>
+        <v>664688</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7336,46 +7381,46 @@
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>15347</v>
+        <v>14652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>22559</v>
+        <v>20735</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>37906</v>
+        <v>35387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,46 +7432,46 @@
         <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>306893</v>
+        <v>297905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>558</v>
       </c>
       <c r="I14" s="7">
-        <v>405641</v>
+        <v>454652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="M14" s="7">
         <v>837</v>
       </c>
       <c r="N14" s="7">
-        <v>712534</v>
+        <v>752557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,7 +7483,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7453,7 +7498,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7468,7 +7513,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7491,46 +7536,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2507</v>
+        <v>2252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>11826</v>
+        <v>10822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>14333</v>
+        <v>13074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,46 +7587,46 @@
         <v>275</v>
       </c>
       <c r="D17" s="7">
-        <v>194241</v>
+        <v>176490</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>514</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>464</v>
       </c>
       <c r="I17" s="7">
-        <v>220077</v>
+        <v>197834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>528</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
       </c>
       <c r="N17" s="7">
-        <v>414318</v>
+        <v>374324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>517</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>518</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7638,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7608,7 +7653,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7623,7 +7668,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7646,46 +7691,46 @@
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>14006</v>
+        <v>13494</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>17393</v>
+        <v>16101</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>31399</v>
+        <v>29596</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,46 +7742,46 @@
         <v>351</v>
       </c>
       <c r="D20" s="7">
-        <v>263217</v>
+        <v>256142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>503</v>
+        <v>538</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>426</v>
       </c>
       <c r="I20" s="7">
-        <v>258229</v>
+        <v>240955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>777</v>
       </c>
       <c r="N20" s="7">
-        <v>521446</v>
+        <v>497096</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7793,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7763,7 +7808,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7778,7 +7823,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7801,46 +7846,46 @@
         <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>28583</v>
+        <v>27614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>66228</v>
+        <v>60795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M22" s="7">
         <v>126</v>
       </c>
       <c r="N22" s="7">
-        <v>94811</v>
+        <v>88409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,46 +7897,46 @@
         <v>568</v>
       </c>
       <c r="D23" s="7">
-        <v>599171</v>
+        <v>596665</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>543</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>865</v>
       </c>
       <c r="I23" s="7">
-        <v>737975</v>
+        <v>788470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>1433</v>
       </c>
       <c r="N23" s="7">
-        <v>1337146</v>
+        <v>1385135</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7948,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7918,7 +7963,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7933,7 +7978,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7956,46 +8001,46 @@
         <v>18</v>
       </c>
       <c r="D25" s="7">
-        <v>15487</v>
+        <v>13025</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
       </c>
       <c r="I25" s="7">
-        <v>66948</v>
+        <v>56273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
       </c>
       <c r="N25" s="7">
-        <v>82434</v>
+        <v>69299</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>553</v>
+        <v>233</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>554</v>
+        <v>512</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>555</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,46 +8052,46 @@
         <v>744</v>
       </c>
       <c r="D26" s="7">
-        <v>843941</v>
+        <v>915695</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>556</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>565</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="H26" s="7">
         <v>969</v>
       </c>
       <c r="I26" s="7">
-        <v>798083</v>
+        <v>658578</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="M26" s="7">
         <v>1713</v>
       </c>
       <c r="N26" s="7">
-        <v>1642025</v>
+        <v>1574273</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8103,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8073,7 +8118,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8088,7 +8133,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8111,46 +8156,46 @@
         <v>129</v>
       </c>
       <c r="D28" s="7">
-        <v>117669</v>
+        <v>111757</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>327</v>
+        <v>571</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>564</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>451</v>
       </c>
       <c r="I28" s="7">
-        <v>288464</v>
+        <v>262196</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>565</v>
+        <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>573</v>
       </c>
       <c r="M28" s="7">
         <v>580</v>
       </c>
       <c r="N28" s="7">
-        <v>406133</v>
+        <v>373953</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>262</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,46 +8207,46 @@
         <v>3245</v>
       </c>
       <c r="D29" s="7">
-        <v>3265967</v>
+        <v>3346573</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>570</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>337</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>4908</v>
       </c>
       <c r="I29" s="7">
-        <v>3514398</v>
+        <v>3395506</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>571</v>
+        <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M29" s="7">
         <v>8153</v>
       </c>
       <c r="N29" s="7">
-        <v>6780365</v>
+        <v>6742079</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>268</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8258,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383636</v>
+        <v>3458330</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8228,7 +8273,7 @@
         <v>5359</v>
       </c>
       <c r="I30" s="7">
-        <v>3802862</v>
+        <v>3657702</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8243,7 +8288,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7186498</v>
+        <v>7116032</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
